--- a/OTHERS/DOC/PRODUCT_LIST.xlsx
+++ b/OTHERS/DOC/PRODUCT_LIST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="902"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="338"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVERYLIST" sheetId="53" r:id="rId1"/>
@@ -19,10 +19,6 @@
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,10 +1165,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,16 +1177,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,10 +1198,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,28 +1222,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1250,19 +1252,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,34 +1273,37 @@
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1447,7 +1449,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,20 +1814,19 @@
   <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="20.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="50.625" style="2" customWidth="1"/>
     <col min="9" max="20" width="8.625" style="2" customWidth="1"/>
-    <col min="21" max="24" width="8.625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="24" width="8.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="8.625" style="2" customWidth="1"/>
     <col min="26" max="26" width="9" style="2" customWidth="1"/>
     <col min="27" max="27" width="11" style="2" customWidth="1"/>
     <col min="28" max="28" width="13" style="2" customWidth="1"/>
@@ -1837,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" spans="2:28">
+    <row r="2" s="1" customFormat="1" ht="49.5" spans="2:28">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3828,20 +3829,19 @@
   <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="20.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="50.625" style="2" customWidth="1"/>
     <col min="9" max="20" width="8.625" style="2" customWidth="1"/>
-    <col min="21" max="24" width="8.625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="24" width="8.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="8.625" style="2" customWidth="1"/>
     <col min="26" max="26" width="9" style="2" customWidth="1"/>
     <col min="27" max="27" width="11" style="2" customWidth="1"/>
     <col min="28" max="28" width="13" style="2" customWidth="1"/>
@@ -3853,7 +3853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" spans="2:28">
+    <row r="2" s="1" customFormat="1" ht="49.5" spans="2:28">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
